--- a/Saved_file/EM003/2026_08/sap_data.xlsx
+++ b/Saved_file/EM003/2026_08/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST5873</t>
+          <t>CUST7231</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15336743</v>
+        <v>23318850</v>
       </c>
       <c r="E2" t="n">
-        <v>3472518</v>
+        <v>4469637</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -546,25 +546,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-08-08</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST4089</t>
+          <t>CUST2665</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20973582</v>
+        <v>39935056</v>
       </c>
       <c r="E3" t="n">
-        <v>3835779</v>
+        <v>9640934</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST9726</t>
+          <t>CUST9156</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31236389</v>
+        <v>32786445</v>
       </c>
       <c r="E4" t="n">
-        <v>5664792</v>
+        <v>7612171</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -632,12 +632,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST9156</t>
+          <t>CUST8653</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27875602</v>
+        <v>25784788</v>
       </c>
       <c r="E5" t="n">
-        <v>5849503</v>
+        <v>5947362</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST7240</t>
+          <t>CUST9578</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27364857</v>
+        <v>24046911</v>
       </c>
       <c r="E6" t="n">
-        <v>5163276</v>
+        <v>4668417</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-08-01</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST2118</t>
+          <t>CUST5158</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15899243</v>
+        <v>25177802</v>
       </c>
       <c r="E7" t="n">
-        <v>2696795</v>
+        <v>4561514</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST8346</t>
+          <t>CUST9196</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23741581</v>
+        <v>23983166</v>
       </c>
       <c r="E8" t="n">
-        <v>4760739</v>
+        <v>5952865</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST2701</t>
+          <t>CUST5153</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19174538</v>
+        <v>24443597</v>
       </c>
       <c r="E9" t="n">
-        <v>4226918</v>
+        <v>5332370</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,17 +902,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST7068</t>
+          <t>CUST9156</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>32812328</v>
+        <v>37681912</v>
       </c>
       <c r="E10" t="n">
-        <v>5782735</v>
+        <v>8119130</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST2374</t>
+          <t>CUST7332</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18370163</v>
+        <v>32447393</v>
       </c>
       <c r="E11" t="n">
-        <v>3883875</v>
+        <v>5373373</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-08-01</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST2287</t>
+          <t>CUST5045</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>29032485</v>
+        <v>17590992</v>
       </c>
       <c r="E12" t="n">
-        <v>6019119</v>
+        <v>3799394</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST9415</t>
+          <t>CUST3467</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34930967</v>
+        <v>24595317</v>
       </c>
       <c r="E13" t="n">
-        <v>8499217</v>
+        <v>5277044</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST5466</t>
+          <t>CUST2584</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37106884</v>
+        <v>21288475</v>
       </c>
       <c r="E14" t="n">
-        <v>9132905</v>
+        <v>3214820</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST2118</t>
+          <t>CUST2382</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29034320</v>
+        <v>21741670</v>
       </c>
       <c r="E15" t="n">
-        <v>6206850</v>
+        <v>4317292</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST9156</t>
+          <t>CUST4851</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25463181</v>
+        <v>26914543</v>
       </c>
       <c r="E16" t="n">
-        <v>6026516</v>
+        <v>5227133</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST2701</t>
+          <t>CUST6887</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23147974</v>
+        <v>15566918</v>
       </c>
       <c r="E17" t="n">
-        <v>4093647</v>
+        <v>3128119</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST4739</t>
+          <t>CUST5504</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>31927404</v>
+        <v>23549503</v>
       </c>
       <c r="E18" t="n">
-        <v>5467572</v>
+        <v>4797475</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,12 +1388,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-08-21</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST9156</t>
+          <t>CUST4511</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23433571</v>
+        <v>17203366</v>
       </c>
       <c r="E19" t="n">
-        <v>3893612</v>
+        <v>2988740</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,12 +1442,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-08-22</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST1127</t>
+          <t>CUST4571</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24015109</v>
+        <v>15597544</v>
       </c>
       <c r="E20" t="n">
-        <v>4541857</v>
+        <v>2702537</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST7068</t>
+          <t>CUST8727</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22093290</v>
+        <v>17924910</v>
       </c>
       <c r="E21" t="n">
-        <v>3570044</v>
+        <v>3533894</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-08-22</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST1260</t>
+          <t>CUST4287</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18489311</v>
+        <v>34310805</v>
       </c>
       <c r="E22" t="n">
-        <v>3211147</v>
+        <v>6459049</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,12 +1604,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST2374</t>
+          <t>CUST6988</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>22290670</v>
+        <v>35558039</v>
       </c>
       <c r="E23" t="n">
-        <v>5041037</v>
+        <v>8156994</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1663,12 +1663,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST5538</t>
+          <t>CUST5197</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>21500751</v>
+        <v>37540032</v>
       </c>
       <c r="E24" t="n">
-        <v>5205336</v>
+        <v>7774319</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-05</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST7929</t>
+          <t>CUST8608</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>16863269</v>
+        <v>17555072</v>
       </c>
       <c r="E25" t="n">
-        <v>3292278</v>
+        <v>4089905</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-08-29</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST9300</t>
+          <t>CUST5158</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39194558</v>
+        <v>26055132</v>
       </c>
       <c r="E26" t="n">
-        <v>8013984</v>
+        <v>4312005</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST9300</t>
+          <t>CUST4287</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>39168384</v>
+        <v>36620386</v>
       </c>
       <c r="E27" t="n">
-        <v>6620505</v>
+        <v>6503042</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST9079</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19741531</v>
+        <v>18469248</v>
       </c>
       <c r="E28" t="n">
-        <v>4258754</v>
+        <v>2942652</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST3379</t>
+          <t>CUST4851</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>21727285</v>
+        <v>32901942</v>
       </c>
       <c r="E29" t="n">
-        <v>5250059</v>
+        <v>6953014</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-08-21</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST7172</t>
+          <t>CUST8653</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>23016514</v>
+        <v>36626690</v>
       </c>
       <c r="E30" t="n">
-        <v>3723657</v>
+        <v>6404910</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST1131</t>
+          <t>CUST8696</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>22543175</v>
+        <v>21426040</v>
       </c>
       <c r="E31" t="n">
-        <v>5145524</v>
+        <v>4078878</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2095,12 +2095,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST3379</t>
+          <t>CUST7694</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>34083220</v>
+        <v>24239846</v>
       </c>
       <c r="E32" t="n">
-        <v>5793769</v>
+        <v>3994547</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2166,25 +2166,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST5538</t>
+          <t>CUST9079</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>31638805</v>
+        <v>21098700</v>
       </c>
       <c r="E33" t="n">
-        <v>5797693</v>
+        <v>3507768</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-08-21</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST4739</t>
+          <t>CUST7231</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>28553781</v>
+        <v>34452815</v>
       </c>
       <c r="E34" t="n">
-        <v>6159573</v>
+        <v>6143207</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST1127</t>
+          <t>CUST3467</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>25719183</v>
+        <v>25586011</v>
       </c>
       <c r="E35" t="n">
-        <v>4035008</v>
+        <v>5895588</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-08-27</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST3379</t>
+          <t>CUST9156</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>35917341</v>
+        <v>33870300</v>
       </c>
       <c r="E36" t="n">
-        <v>7460972</v>
+        <v>5624654</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-08-16</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST8945</t>
+          <t>CUST4732</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>18947320</v>
+        <v>37644820</v>
       </c>
       <c r="E37" t="n">
-        <v>4137826</v>
+        <v>7636377</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST2555</t>
+          <t>CUST2640</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>18239780</v>
+        <v>29719510</v>
       </c>
       <c r="E38" t="n">
-        <v>3179184</v>
+        <v>7418295</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST2382</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>17700862</v>
+        <v>36130245</v>
       </c>
       <c r="E39" t="n">
-        <v>3627801</v>
+        <v>8422290</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-08-31</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST4089</t>
+          <t>CUST4055</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>29630786</v>
+        <v>23847032</v>
       </c>
       <c r="E40" t="n">
-        <v>4979302</v>
+        <v>4573962</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2598,25 +2598,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-08-16</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST7929</t>
+          <t>CUST1578</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>36204164</v>
+        <v>16160451</v>
       </c>
       <c r="E41" t="n">
-        <v>6400721</v>
+        <v>2993237</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2630,12 +2630,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST5690</t>
+          <t>CUST3694</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>17265425</v>
+        <v>20269574</v>
       </c>
       <c r="E42" t="n">
-        <v>3325296</v>
+        <v>4387856</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2684,12 +2684,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST4089</t>
+          <t>CUST2665</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>38645025</v>
+        <v>28554509</v>
       </c>
       <c r="E43" t="n">
-        <v>6192106</v>
+        <v>5731836</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2760,19 +2760,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-08-30</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST5224</t>
+          <t>CUST4732</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>23851479</v>
+        <v>18872676</v>
       </c>
       <c r="E44" t="n">
-        <v>3753497</v>
+        <v>4085072</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -2797,12 +2797,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST2287</t>
+          <t>CUST5197</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>38622866</v>
+        <v>28265313</v>
       </c>
       <c r="E45" t="n">
-        <v>9283961</v>
+        <v>4577972</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2868,22 +2868,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-08-10</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST1127</t>
+          <t>CUST4054</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>38560100</v>
+        <v>16161302</v>
       </c>
       <c r="E46" t="n">
-        <v>6164572</v>
+        <v>2849300</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>53</v>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST2133</t>
+          <t>CUST2640</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>38356647</v>
+        <v>17186732</v>
       </c>
       <c r="E47" t="n">
-        <v>9414815</v>
+        <v>3228974</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-08-29</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST1127</t>
+          <t>CUST9156</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18880858</v>
+        <v>39626820</v>
       </c>
       <c r="E48" t="n">
-        <v>4289081</v>
+        <v>7143139</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3013,12 +3013,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-25</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST5538</t>
+          <t>CUST7694</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35615418</v>
+        <v>21665349</v>
       </c>
       <c r="E49" t="n">
-        <v>6850840</v>
+        <v>5045320</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST4219</t>
+          <t>CUST4360</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>30537765</v>
+        <v>18026235</v>
       </c>
       <c r="E50" t="n">
-        <v>6301079</v>
+        <v>3118882</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST7240</t>
+          <t>CUST1578</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21750967</v>
+        <v>27874111</v>
       </c>
       <c r="E51" t="n">
-        <v>3425424</v>
+        <v>6313700</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST9300</t>
+          <t>CUST2584</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>19014059</v>
+        <v>15109552</v>
       </c>
       <c r="E52" t="n">
-        <v>4445652</v>
+        <v>2618478</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,12 +3224,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST2861</t>
+          <t>CUST4732</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>17531906</v>
+        <v>34016646</v>
       </c>
       <c r="E53" t="n">
-        <v>3093539</v>
+        <v>7648719</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST1390</t>
+          <t>CUST3694</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>21054865</v>
+        <v>28916253</v>
       </c>
       <c r="E54" t="n">
-        <v>4829540</v>
+        <v>5598400</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST8799</t>
+          <t>CUST3880</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>35692441</v>
+        <v>33147316</v>
       </c>
       <c r="E55" t="n">
-        <v>5543015</v>
+        <v>7860878</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-08-04</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST9415</t>
+          <t>CUST2665</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>33266459</v>
+        <v>18389260</v>
       </c>
       <c r="E56" t="n">
-        <v>5826437</v>
+        <v>3354041</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-08-09</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST1390</t>
+          <t>CUST4287</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>27661854</v>
+        <v>37143847</v>
       </c>
       <c r="E57" t="n">
-        <v>5511421</v>
+        <v>5610840</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-08-30</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST1390</t>
+          <t>CUST9071</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>37662788</v>
+        <v>37285702</v>
       </c>
       <c r="E58" t="n">
-        <v>9130816</v>
+        <v>7662164</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3553,12 +3553,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-08-31</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST3467</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>29932494</v>
+        <v>30106012</v>
       </c>
       <c r="E59" t="n">
-        <v>4647933</v>
+        <v>5994809</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3607,12 +3607,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST9156</t>
+          <t>CUST3026</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>26752015</v>
+        <v>31442158</v>
       </c>
       <c r="E60" t="n">
-        <v>4381010</v>
+        <v>5039816</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3661,12 +3661,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-05</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST1131</t>
+          <t>CUST9071</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>21673585</v>
+        <v>18212676</v>
       </c>
       <c r="E61" t="n">
-        <v>3840767</v>
+        <v>3535623</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST7172</t>
+          <t>CUST9071</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>24021676</v>
+        <v>31597215</v>
       </c>
       <c r="E62" t="n">
-        <v>5230123</v>
+        <v>5399032</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-08-09</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST4219</t>
+          <t>CUST8674</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>32887587</v>
+        <v>36777909</v>
       </c>
       <c r="E63" t="n">
-        <v>6275639</v>
+        <v>8877046</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST2918</t>
+          <t>CUST9353</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>32984404</v>
+        <v>25864135</v>
       </c>
       <c r="E64" t="n">
-        <v>7452369</v>
+        <v>5599810</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST1131</t>
+          <t>CUST8674</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>27118966</v>
+        <v>28121342</v>
       </c>
       <c r="E65" t="n">
-        <v>4879946</v>
+        <v>5056269</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST7068</t>
+          <t>CUST2584</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>39537123</v>
+        <v>22615648</v>
       </c>
       <c r="E66" t="n">
-        <v>7158058</v>
+        <v>4999029</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3980,17 +3980,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-08-31</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST9517</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>36366400</v>
+        <v>24341529</v>
       </c>
       <c r="E67" t="n">
-        <v>8506845</v>
+        <v>4746581</v>
       </c>
       <c r="F67" t="n">
         <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-27</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST1127</t>
+          <t>CUST4571</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>30044337</v>
+        <v>28434982</v>
       </c>
       <c r="E68" t="n">
-        <v>6775961</v>
+        <v>6642522</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4088,12 +4088,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST2555</t>
+          <t>CUST9218</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>17093964</v>
+        <v>29195582</v>
       </c>
       <c r="E69" t="n">
-        <v>3170480</v>
+        <v>5875820</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-08-04</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST3880</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>27536969</v>
+        <v>30566689</v>
       </c>
       <c r="E70" t="n">
-        <v>4252215</v>
+        <v>6000463</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST2374</t>
+          <t>CUST2274</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>27244324</v>
+        <v>29703464</v>
       </c>
       <c r="E71" t="n">
-        <v>6526123</v>
+        <v>5674964</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,12 +4250,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-08-29</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST8945</t>
+          <t>CUST4732</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25103550</v>
+        <v>27119455</v>
       </c>
       <c r="E72" t="n">
-        <v>4636401</v>
+        <v>5705075</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4326,22 +4326,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST9156</t>
+          <t>CUST3880</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>31248024</v>
+        <v>17414718</v>
       </c>
       <c r="E73" t="n">
-        <v>7003919</v>
+        <v>4169179</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>20</v>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST3379</t>
+          <t>CUST4287</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>18421304</v>
+        <v>33427502</v>
       </c>
       <c r="E74" t="n">
-        <v>3796834</v>
+        <v>7350863</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST4739</t>
+          <t>CUST9733</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>31580344</v>
+        <v>37640355</v>
       </c>
       <c r="E75" t="n">
-        <v>6534083</v>
+        <v>5716461</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4466,12 +4466,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST9726</t>
+          <t>CUST4054</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>38499037</v>
+        <v>24705284</v>
       </c>
       <c r="E76" t="n">
-        <v>6520815</v>
+        <v>6104916</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4520,12 +4520,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4542,29 +4542,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-01</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST2701</t>
+          <t>CUST9071</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>17220041</v>
+        <v>36192536</v>
       </c>
       <c r="E77" t="n">
-        <v>3655574</v>
+        <v>7503836</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-08-08</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST2287</t>
+          <t>CUST5799</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>24478824</v>
+        <v>22125034</v>
       </c>
       <c r="E78" t="n">
-        <v>4598360</v>
+        <v>4195787</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4633,12 +4633,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-08-06</t>
+          <t>2026-08-09</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST6566</t>
+          <t>CUST5624</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>33140250</v>
+        <v>23209522</v>
       </c>
       <c r="E79" t="n">
-        <v>7070500</v>
+        <v>3854019</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-19</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST2280</t>
+          <t>CUST5197</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>28686592</v>
+        <v>16647369</v>
       </c>
       <c r="E80" t="n">
-        <v>5856549</v>
+        <v>4047706</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4736,17 +4736,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4758,29 +4758,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST9930</t>
+          <t>CUST3026</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>34787833</v>
+        <v>34586410</v>
       </c>
       <c r="E81" t="n">
-        <v>5983712</v>
+        <v>6284665</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-08-08</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST4853</t>
+          <t>CUST8653</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>23113261</v>
+        <v>22761494</v>
       </c>
       <c r="E82" t="n">
-        <v>3735515</v>
+        <v>4423050</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4866,29 +4866,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST4739</t>
+          <t>CUST9218</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>21424658</v>
+        <v>36653260</v>
       </c>
       <c r="E83" t="n">
-        <v>3308438</v>
+        <v>6349408</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4920,25 +4920,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST7240</t>
+          <t>CUST5197</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>33383667</v>
+        <v>16149164</v>
       </c>
       <c r="E84" t="n">
-        <v>6250683</v>
+        <v>2833413</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4957,12 +4957,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST2861</t>
+          <t>CUST5158</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>22340289</v>
+        <v>19107523</v>
       </c>
       <c r="E85" t="n">
-        <v>3602759</v>
+        <v>4473006</v>
       </c>
       <c r="F85" t="n">
         <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5006,17 +5006,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST5224</t>
+          <t>CUST9218</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>33018622</v>
+        <v>19247294</v>
       </c>
       <c r="E86" t="n">
-        <v>7289915</v>
+        <v>4742194</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-08-21</t>
+          <t>2026-08-25</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST2555</t>
+          <t>CUST5158</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>39693883</v>
+        <v>31600049</v>
       </c>
       <c r="E87" t="n">
-        <v>9349316</v>
+        <v>7037300</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-08-30</t>
+          <t>2026-08-01</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST2374</t>
+          <t>CUST5197</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>38885717</v>
+        <v>33661416</v>
       </c>
       <c r="E88" t="n">
-        <v>7249307</v>
+        <v>5123220</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>65</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-08-06</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST7068</t>
+          <t>CUST7332</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>39420235</v>
+        <v>22126382</v>
       </c>
       <c r="E89" t="n">
-        <v>8369672</v>
+        <v>4079808</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST2280</t>
+          <t>CUST9218</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>34694222</v>
+        <v>15483272</v>
       </c>
       <c r="E90" t="n">
-        <v>6324662</v>
+        <v>3292312</v>
       </c>
       <c r="F90" t="n">
         <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST2133</t>
+          <t>CUST1578</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>35677116</v>
+        <v>16706214</v>
       </c>
       <c r="E91" t="n">
-        <v>7367160</v>
+        <v>3498376</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1636205</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>69.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4071104</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1010616</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.2</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>6989792</v>
+        <v>4978440</v>
       </c>
       <c r="E4" t="n">
-        <v>1603582</v>
+        <v>914726</v>
       </c>
     </row>
     <row r="5">
@@ -5454,16 +5454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4187046</v>
+        <v>20039273</v>
       </c>
       <c r="E5" t="n">
-        <v>1162734</v>
+        <v>4594937</v>
       </c>
     </row>
     <row r="6">
@@ -5473,16 +5473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.3</v>
+        <v>79.5</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>9728800</v>
+        <v>4137988</v>
       </c>
       <c r="E6" t="n">
-        <v>2051276</v>
+        <v>631858</v>
       </c>
     </row>
     <row r="7">
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>18311965</v>
+        <v>11956124</v>
       </c>
       <c r="E7" t="n">
-        <v>5182703</v>
+        <v>2164825</v>
       </c>
     </row>
     <row r="8">
@@ -5517,10 +5517,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>4547841</v>
+        <v>4066764</v>
       </c>
       <c r="E8" t="n">
-        <v>626722</v>
+        <v>824623</v>
       </c>
     </row>
     <row r="9">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>66.2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1701030</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>351926</v>
       </c>
     </row>
     <row r="11">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.3</v>
+        <v>83.7</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>4897937</v>
+        <v>11046192</v>
       </c>
       <c r="E11" t="n">
-        <v>1158701</v>
+        <v>2832460</v>
       </c>
     </row>
     <row r="12">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>7916299</v>
+        <v>5911874</v>
       </c>
       <c r="E12" t="n">
-        <v>1828382</v>
+        <v>1434023</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>6773248</v>
+        <v>5077098</v>
       </c>
       <c r="E13" t="n">
-        <v>1145257</v>
+        <v>786221</v>
       </c>
     </row>
     <row r="14">
@@ -5625,16 +5625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.8</v>
+        <v>85.2</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>3156229</v>
+        <v>16563457</v>
       </c>
       <c r="E14" t="n">
-        <v>470420</v>
+        <v>4553699</v>
       </c>
     </row>
     <row r="15">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>9620466</v>
+        <v>9274794</v>
       </c>
       <c r="E15" t="n">
-        <v>1503625</v>
+        <v>1357494</v>
       </c>
     </row>
     <row r="16">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.5</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3426393</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>875231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1326186</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>264874</v>
       </c>
     </row>
     <row r="18">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>82.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6372458</v>
+        <v>5398802</v>
       </c>
       <c r="E18" t="n">
-        <v>1117297</v>
+        <v>595107</v>
       </c>
     </row>
     <row r="19">
@@ -5720,16 +5720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86</v>
+        <v>82.3</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>15471967</v>
+        <v>8008104</v>
       </c>
       <c r="E19" t="n">
-        <v>3600728</v>
+        <v>951673</v>
       </c>
     </row>
     <row r="20">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="C20" t="n">
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>12019610</v>
+        <v>12691184</v>
       </c>
       <c r="E20" t="n">
-        <v>2573967</v>
+        <v>2425705</v>
       </c>
     </row>
     <row r="21">
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>85.2</v>
+        <v>76.3</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>14109198</v>
+        <v>9668471</v>
       </c>
       <c r="E21" t="n">
-        <v>2086917</v>
+        <v>969591</v>
       </c>
     </row>
     <row r="22">
@@ -5777,16 +5777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86</v>
+        <v>88.2</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>6829080</v>
+        <v>1890761</v>
       </c>
       <c r="E22" t="n">
-        <v>1086899</v>
+        <v>493227</v>
       </c>
     </row>
     <row r="23">
@@ -5796,16 +5796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1233069</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>203188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.5</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1698967</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>174384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5834,16 +5834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.09999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>6926287</v>
+        <v>11493076</v>
       </c>
       <c r="E25" t="n">
-        <v>1433548</v>
+        <v>2123637</v>
       </c>
     </row>
     <row r="26">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>5320390</v>
+        <v>3376492</v>
       </c>
       <c r="E26" t="n">
-        <v>1202295</v>
+        <v>788362</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77</v>
+        <v>85.5</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>10862399</v>
+        <v>13266852</v>
       </c>
       <c r="E27" t="n">
-        <v>3167227</v>
+        <v>3050190</v>
       </c>
     </row>
     <row r="28">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83.09999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>4226394</v>
+        <v>7179606</v>
       </c>
       <c r="E28" t="n">
-        <v>1133291</v>
+        <v>2040714</v>
       </c>
     </row>
     <row r="29">
@@ -5910,16 +5910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84.2</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>3730514</v>
+        <v>9651880</v>
       </c>
       <c r="E29" t="n">
-        <v>1093250</v>
+        <v>2627400</v>
       </c>
     </row>
     <row r="30">
@@ -5929,16 +5929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>67.3</v>
+        <v>74.3</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>9688812</v>
+        <v>10394381</v>
       </c>
       <c r="E30" t="n">
-        <v>2048503</v>
+        <v>1183613</v>
       </c>
     </row>
     <row r="31">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.2</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2511211</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>702584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5967,16 +5967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>76.3</v>
+        <v>85.3</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>2443048</v>
+        <v>8097334</v>
       </c>
       <c r="E32" t="n">
-        <v>443826</v>
+        <v>1760219</v>
       </c>
     </row>
   </sheetData>
